--- a/excel/por manual/local/argentina2.xlsx
+++ b/excel/por manual/local/argentina2.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>COMM</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11034,7 +11034,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -13617,7 +13617,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -14314,7 +14314,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -14683,7 +14683,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15216,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -15380,7 +15380,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -15544,7 +15544,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -15585,7 +15585,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -15872,7 +15872,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -15954,7 +15954,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16036,7 +16036,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -16651,7 +16651,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -19890,7 +19890,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -19931,7 +19931,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -20095,7 +20095,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -20546,7 +20546,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -21895,7 +21895,7 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -22018,7 +22018,7 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -22100,7 +22100,7 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -22551,7 +22551,7 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -22674,7 +22674,7 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -22879,7 +22879,7 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -22920,7 +22920,7 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -23658,7 +23658,7 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -23781,7 +23781,7 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -23863,7 +23863,7 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>Dominio suspendido hasta el 24/06</t>
         </is>
       </c>
     </row>
@@ -23945,7 +23945,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -23986,7 +23986,7 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -24027,7 +24027,7 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -24642,7 +24642,7 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -24888,7 +24888,7 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24929,7 +24929,7 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -24970,7 +24970,7 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -25298,7 +25298,7 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25339,7 +25339,7 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25380,7 +25380,7 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25462,7 +25462,7 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25503,7 +25503,7 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25667,7 +25667,7 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -25749,7 +25749,7 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25790,7 +25790,7 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -25913,7 +25913,7 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -25954,7 +25954,7 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -25995,7 +25995,7 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>HOST</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26446,7 +26446,7 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -26569,7 +26569,7 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -26651,7 +26651,7 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -26733,7 +26733,7 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -26815,7 +26815,7 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -26856,7 +26856,7 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t xml:space="preserve">SITIO EN MENTENIMIENTO </t>
         </is>
       </c>
     </row>
@@ -27020,7 +27020,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27307,7 +27307,7 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27389,7 +27389,7 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -27512,7 +27512,7 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27553,7 +27553,7 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27676,7 +27676,7 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27758,7 +27758,7 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27922,7 +27922,7 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -27963,7 +27963,7 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -28004,7 +28004,7 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -28127,7 +28127,7 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -28209,7 +28209,7 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -28291,7 +28291,7 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -28578,7 +28578,7 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -28697,7 +28697,7 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -28861,7 +28861,7 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -28943,7 +28943,7 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29189,7 +29189,7 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29230,7 +29230,7 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29353,7 +29353,7 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29435,7 +29435,7 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29517,7 +29517,7 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29558,7 +29558,7 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -29681,7 +29681,7 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -29722,7 +29722,7 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -29763,7 +29763,7 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -29927,7 +29927,7 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -29968,7 +29968,7 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -30132,7 +30132,7 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -30173,7 +30173,7 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -30460,7 +30460,7 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
@@ -30583,7 +30583,7 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30665,7 +30665,7 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30706,7 +30706,7 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -30747,7 +30747,7 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30788,7 +30788,7 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -30829,7 +30829,7 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -30911,7 +30911,7 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31116,7 +31116,7 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -31157,7 +31157,7 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -31239,7 +31239,7 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -31280,7 +31280,7 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>MISC</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31403,7 +31403,7 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31444,7 +31444,7 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31526,7 +31526,7 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31772,7 +31772,7 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31813,7 +31813,7 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -31977,7 +31977,7 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
